--- a/SupportingInformation.xlsx
+++ b/SupportingInformation.xlsx
@@ -5,18 +5,19 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Trendlines" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TXTL Cost" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Data" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
   <si>
     <t>Case</t>
   </si>
@@ -103,6 +104,135 @@
   </si>
   <si>
     <t>scFvR4</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>time (h)</t>
+  </si>
+  <si>
+    <t>CAT (mM)</t>
+  </si>
+  <si>
+    <t>Error (mM)</t>
+  </si>
+  <si>
+    <t>Organic Acids</t>
+  </si>
+  <si>
+    <t>Acetate (mM)</t>
+  </si>
+  <si>
+    <t>Glucose (mM)</t>
+  </si>
+  <si>
+    <t>Lactate (mM)</t>
+  </si>
+  <si>
+    <t>Malate (mM)</t>
+  </si>
+  <si>
+    <t>Pyruvate (mM)</t>
+  </si>
+  <si>
+    <t>Succinate (mM)</t>
+  </si>
+  <si>
+    <t>Amino Acids</t>
+  </si>
+  <si>
+    <t>Alanine (mM)</t>
+  </si>
+  <si>
+    <t>Asparagine (mM)</t>
+  </si>
+  <si>
+    <t>Aspartic acid (mM)</t>
+  </si>
+  <si>
+    <t>Cysteine (mM)</t>
+  </si>
+  <si>
+    <t>Glutamine (mM)</t>
+  </si>
+  <si>
+    <t>Glycine (mM)</t>
+  </si>
+  <si>
+    <t>Histidine (mM)</t>
+  </si>
+  <si>
+    <t>Isoleucine (mM)</t>
+  </si>
+  <si>
+    <t>Leucine (mM)</t>
+  </si>
+  <si>
+    <t>Lysine (mM)</t>
+  </si>
+  <si>
+    <t>Methionine (mM)</t>
+  </si>
+  <si>
+    <t>Phenylalanine (mM)</t>
+  </si>
+  <si>
+    <t>Proline (mM)</t>
+  </si>
+  <si>
+    <t>Serine (mM)</t>
+  </si>
+  <si>
+    <t>Threonine (mM)</t>
+  </si>
+  <si>
+    <t>Tryptophan (mM)</t>
+  </si>
+  <si>
+    <t>Tyrosine (mM)</t>
+  </si>
+  <si>
+    <t>Valine (mM)</t>
+  </si>
+  <si>
+    <t>Nucleotides</t>
+  </si>
+  <si>
+    <t>ADP (mM)</t>
+  </si>
+  <si>
+    <t>AMP (mM)</t>
+  </si>
+  <si>
+    <t>ATP (mM)</t>
+  </si>
+  <si>
+    <t>CDP (mM)</t>
+  </si>
+  <si>
+    <t>CMP (mM)</t>
+  </si>
+  <si>
+    <t>CTP (mM)</t>
+  </si>
+  <si>
+    <t>GDP (mM)</t>
+  </si>
+  <si>
+    <t>GMP (mM)</t>
+  </si>
+  <si>
+    <t>GTP (mM)</t>
+  </si>
+  <si>
+    <t>UDP (mM)</t>
+  </si>
+  <si>
+    <t>UMP (mM)</t>
+  </si>
+  <si>
+    <t>UTP (mM)</t>
   </si>
 </sst>
 </file>
@@ -112,11 +242,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -132,6 +263,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -176,12 +314,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -318,7 +460,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -542,7 +684,2421 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M74"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O67" activeCellId="0" sqref="O67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45918367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5102040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1530612244898"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2959183673469"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.96938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4132653061224"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2244897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6530612244898"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.7602040816327"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.8469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>5.4445733E-005</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.083333333</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>5.4445733E-005</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0.00013850267</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.00054445733</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0.0002295982</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.33333333</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.0023394219</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0.00083593305</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.0052134346</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0.0012997439</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.010002443</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0.0032224155</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.013341722</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0.0033628916</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.018477214</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0.0012132168</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>12.31</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>35.9</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>16.18</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>25.01</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>8.16</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>9.38</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>9.09</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>24.83</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>12.74</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>35.62</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>41.55</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L22" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="M22" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2.199977</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0.10999885</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1.5794221</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0.078971103</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2.635901</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0.13179505</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1.8111495</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.090557476</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.98531742</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.049265871</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>3.1155022</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0.15577511</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1.8871362</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0.094356812</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1.1141748</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0.055708742</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2.7022939</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0.1351147</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1.5514153</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.077570763</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1.1808922</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.059044612</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>2.5941195</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0.12970597</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>2.3822594</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0.11911297</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1.1123194</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0.05561597</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2.1769114</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0.10884557</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1.2182134</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0.060910669</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>1.1871182</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.05935591</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>2.4501426</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0.12250713</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3.6479606</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0.18239803</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>1.1254352</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0.056271758</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>1.5110272</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0.075551359</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1.0966435</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0.054832174</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1.2549923</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.062749616</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>2.4184214</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0.12092107</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>4.9442539</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0.2472127</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1.1402628</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0.057013139</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1.335441</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0.066772051</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1.0720746</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.053603732</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>1.4187337</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.070936686</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>2.4520416</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>0.12260208</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>6.2679604</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>0.31339802</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1.1914422</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>0.05957211</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>1.3378537</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>0.066892685</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1.0382791</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.051913955</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>1.4934835</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.074674176</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>2.1750281</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.10875141</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>6.1012865</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>0.30506432</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1.0043934</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>0.050219668</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>2.0899896</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.10449948</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>2.2607646</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>0.11303823</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>6.2687392</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>0.31343696</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1.0445011</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>0.052225053</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2.8035246</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.14017623</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <v>2.180455</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>0.10902275</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>6.2371325</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>0.31185663</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0.23528742</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0.011764371</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>0.57664249</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>0.028832124</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>3.3310877</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.16655438</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <v>2.3406663</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.11703332</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>1.7722675</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>0.088613373</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>1.8482848</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>0.092414239</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2.3361078</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.11680539</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>2.2098124</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>0.11049062</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1.9364745</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>0.096823726</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <v>1.4064041</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <v>0.070320207</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1.7413789</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>0.087068946</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>1.7079153</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>0.085395763</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2.1225356</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.10612678</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>2.7092513</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>0.13546256</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>1.7220461</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>0.086102303</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <v>1.4766226</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <v>0.073831128</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>1.6867474</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>0.084337368</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>1.6037719</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>0.080188594</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2.0521576</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.10260788</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.33310739</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>0.016655369</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>1.5847019</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>0.079235096</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1.323175</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <v>0.06615875</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1.7265308</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>0.08632654</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>1.6085611</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0.080428053</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2.0495285</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.10247643</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.47201698</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>0.023600849</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>1.5421993</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>0.077109967</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1.2915966</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <v>0.064579829</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1.5076885</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>0.075384423</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>1.5875252</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>0.079376259</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2.0567066</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.10283533</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.47265085</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>0.023632542</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>1.4868546</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>0.07434273</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <v>1.3671531</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <v>0.068357656</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1.8397602</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>0.091988009</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>1.4104069</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>0.070520344</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1.7827595</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.089137974</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.58778289</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>0.029389145</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>1.3184776</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>0.06592388</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>1.1016009</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>0.055080045</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1.4517945</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>0.072589725</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>1.4512248</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>0.072561242</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1.7242074</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.086210371</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.63222825</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>0.031611413</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>1.3079853</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>0.065399267</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <v>1.0776188</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <v>0.05388094</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1.9294271</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>0.096471354</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>1.4582925</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>0.072914623</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1.8639458</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.093197291</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.59213623</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>0.029606812</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>1.3213442</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>0.066067209</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <v>1.1533167</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <v>0.057665833</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>2.0428718</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>0.10214359</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>1.5568398</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>0.077841992</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2.0008173</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.10004086</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.82239162</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.041119581</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>1.3586879</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.067934397</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <v>1.2324204</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <v>0.06162102</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H44" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1.8478653</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>0.092393266</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>2.090608</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>0.1045304</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2.1839539</v>
+      </c>
+      <c r="G45" s="0" t="n">
+        <v>0.10919769</v>
+      </c>
+      <c r="H45" s="0" t="n">
+        <v>1.7245703</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.086228515</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>1.1150582</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>0.05575291</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <v>1.9889952</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <v>0.099449758</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1.6436617</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>0.082183083</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>1.9574503</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>0.097872514</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>1.9870397</v>
+      </c>
+      <c r="G46" s="0" t="n">
+        <v>0.099351987</v>
+      </c>
+      <c r="H46" s="0" t="n">
+        <v>1.6566276</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.082831379</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>1.0462559</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.052312796</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <v>1.8101721</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <v>0.090508606</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1.5538388</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>0.077691939</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>1.8150696</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0.090753478</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1.8474851</v>
+      </c>
+      <c r="G47" s="0" t="n">
+        <v>0.092374255</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>1.5518663</v>
+      </c>
+      <c r="I47" s="0" t="n">
+        <v>0.077593315</v>
+      </c>
+      <c r="J47" s="0" t="n">
+        <v>0.96287949</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <v>0.048143974</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <v>1.6587792</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <v>0.082938958</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1.5680753</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>0.078403766</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>1.7649815</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>0.088249076</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>1.806657</v>
+      </c>
+      <c r="G48" s="0" t="n">
+        <v>0.090332851</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <v>1.5466387</v>
+      </c>
+      <c r="I48" s="0" t="n">
+        <v>0.077331937</v>
+      </c>
+      <c r="J48" s="0" t="n">
+        <v>0.98251889</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <v>0.049125944</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <v>1.5957792</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <v>0.079788959</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>1.526642</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>0.076332102</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>1.7134125</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>0.085670626</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1.7637173</v>
+      </c>
+      <c r="G49" s="0" t="n">
+        <v>0.088185865</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <v>1.5216658</v>
+      </c>
+      <c r="I49" s="0" t="n">
+        <v>0.076083292</v>
+      </c>
+      <c r="J49" s="0" t="n">
+        <v>1.167919</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <v>0.058395949</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <v>1.5474801</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <v>0.077374007</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1.3771827</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>0.068859133</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>1.5469206</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0.07734603</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>1.5232283</v>
+      </c>
+      <c r="G50" s="0" t="n">
+        <v>0.076161413</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <v>1.4509502</v>
+      </c>
+      <c r="I50" s="0" t="n">
+        <v>0.072547508</v>
+      </c>
+      <c r="J50" s="0" t="n">
+        <v>1.3117547</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <v>0.065587735</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <v>1.3205266</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <v>0.06602633</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1.3964453</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>0.069822263</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>1.5045725</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>0.075228627</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>1.4965874</v>
+      </c>
+      <c r="G51" s="0" t="n">
+        <v>0.07482937</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>1.4713487</v>
+      </c>
+      <c r="I51" s="0" t="n">
+        <v>0.073567437</v>
+      </c>
+      <c r="J51" s="0" t="n">
+        <v>0.97586596</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <v>0.048793298</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <v>1.369898</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <v>0.068494901</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1.4050636</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>0.070253181</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>1.475334</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>0.073766702</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1.4697047</v>
+      </c>
+      <c r="G52" s="0" t="n">
+        <v>0.073485236</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>1.5076746</v>
+      </c>
+      <c r="I52" s="0" t="n">
+        <v>0.075383732</v>
+      </c>
+      <c r="J52" s="0" t="n">
+        <v>1.0261053</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <v>0.051305265</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <v>1.4297684</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <v>0.071488421</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1.4654548</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>0.07327274</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>1.5062473</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>0.075312363</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1.4840793</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0.074203966</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>1.6128013</v>
+      </c>
+      <c r="I53" s="0" t="n">
+        <v>0.080640065</v>
+      </c>
+      <c r="J53" s="0" t="n">
+        <v>1.0463549</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <v>0.052317743</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <v>1.5156175</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <v>0.075780876</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L56" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="M56" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>0.22992125</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>0.079766981</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>0.16955314</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>0.036230653</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1.3133777</v>
+      </c>
+      <c r="G57" s="0" t="n">
+        <v>0.17919241</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>0.1155795</v>
+      </c>
+      <c r="I57" s="0" t="n">
+        <v>0.0077529685</v>
+      </c>
+      <c r="J57" s="0" t="n">
+        <v>0.13664728</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <v>0.030210845</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <v>0.74300613</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <v>0.15189283</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>0.083333333</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>0.53161591</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>0.01407477</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>0.16874413</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>0.039269636</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0.85230818</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>0.17258936</v>
+      </c>
+      <c r="H58" s="0" t="n">
+        <v>0.47776947</v>
+      </c>
+      <c r="I58" s="0" t="n">
+        <v>0.071892874</v>
+      </c>
+      <c r="J58" s="0" t="n">
+        <v>0.13266272</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <v>0.0043076029</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <v>0.4415486</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <v>0.090524637</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>0.3531498</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.053229408</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>0.065438371</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>0.05700276</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1.0536731</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>0.20447733</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <v>0.40588576</v>
+      </c>
+      <c r="I59" s="0" t="n">
+        <v>0.038699109</v>
+      </c>
+      <c r="J59" s="0" t="n">
+        <v>0.055457039</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <v>0.044418975</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <v>0.43201472</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <v>0.11094884</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>0.33333333</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>0.22391055</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>0.03712732</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1.2395786</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0.19314342</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>0.089949556</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>0.0027048731</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.023631367</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.01493096</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.61421483</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0.08876666</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>0.24621306</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>0.065482582</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1.2794757</v>
+      </c>
+      <c r="G61" s="0" t="n">
+        <v>0.17785454</v>
+      </c>
+      <c r="H61" s="0" t="n">
+        <v>0.14618025</v>
+      </c>
+      <c r="I61" s="0" t="n">
+        <v>0.068493208</v>
+      </c>
+      <c r="J61" s="0" t="n">
+        <v>0.015065444</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0.026094115</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0.5969949</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <v>0.092611806</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>0.17919673</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.077155324</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1.025199</v>
+      </c>
+      <c r="G62" s="0" t="n">
+        <v>0.055568053</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>0.10237101</v>
+      </c>
+      <c r="I62" s="0" t="n">
+        <v>0.046233248</v>
+      </c>
+      <c r="J62" s="0" t="n">
+        <v>0.033662111</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <v>0.035323967</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <v>0.58055886</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <v>0.11938564</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>0.32631363</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>0.042561405</v>
+      </c>
+      <c r="D63" s="0" t="n">
+        <v>0.12638742</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>0.034959694</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0.88129084</v>
+      </c>
+      <c r="G63" s="0" t="n">
+        <v>0.15331955</v>
+      </c>
+      <c r="H63" s="0" t="n">
+        <v>0.23540722</v>
+      </c>
+      <c r="I63" s="0" t="n">
+        <v>0.059617448</v>
+      </c>
+      <c r="J63" s="0" t="n">
+        <v>0.11044144</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <v>0.03152493</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <v>0.53262145</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <v>0.12919234</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>0.54660117</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>0.20494657</v>
+      </c>
+      <c r="D64" s="0" t="n">
+        <v>0.27661835</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>0.059719161</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0.44090683</v>
+      </c>
+      <c r="G64" s="0" t="n">
+        <v>0.12274801</v>
+      </c>
+      <c r="H64" s="0" t="n">
+        <v>0.37374556</v>
+      </c>
+      <c r="I64" s="0" t="n">
+        <v>0.066837919</v>
+      </c>
+      <c r="J64" s="0" t="n">
+        <v>0.42648222</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <v>0.17824225</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <v>0.36505153</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <v>0.09522576</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F66" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>0.15052308</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>0.15645726</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0.073559222</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>0.018505168</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>1.0168719</v>
+      </c>
+      <c r="G67" s="0" t="n">
+        <v>0.18077953</v>
+      </c>
+      <c r="H67" s="0" t="n">
+        <v>0.24777684</v>
+      </c>
+      <c r="I67" s="0" t="n">
+        <v>0.34092906</v>
+      </c>
+      <c r="J67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <v>0.67333166</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <v>0.13498757</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>0.083333333</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>0.40502049</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.059930613</v>
+      </c>
+      <c r="D68" s="0" t="n">
+        <v>0.18328309</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>0.044750548</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0.71660759</v>
+      </c>
+      <c r="G68" s="0" t="n">
+        <v>0.12306961</v>
+      </c>
+      <c r="H68" s="0" t="n">
+        <v>0.32829784</v>
+      </c>
+      <c r="I68" s="0" t="n">
+        <v>0.052418712</v>
+      </c>
+      <c r="J68" s="0" t="n">
+        <v>0.16244929</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <v>0.014910415</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <v>0.37931765</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <v>0.080448143</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>0.29485551</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>0.037390218</v>
+      </c>
+      <c r="D69" s="0" t="n">
+        <v>0.13683518</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>0.012373783</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0.82794035</v>
+      </c>
+      <c r="G69" s="0" t="n">
+        <v>0.11712522</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>0.26609658</v>
+      </c>
+      <c r="I69" s="0" t="n">
+        <v>0.019210291</v>
+      </c>
+      <c r="J69" s="0" t="n">
+        <v>0.1104436</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <v>0.098693412</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <v>0.38892318</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <v>0.063544982</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>0.33333333</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>0.22932315</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.011023133</v>
+      </c>
+      <c r="D70" s="0" t="n">
+        <v>0.037342278</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>0.0027411412</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1.0424917</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0.11111462</v>
+      </c>
+      <c r="H70" s="0" t="n">
+        <v>0.13740373</v>
+      </c>
+      <c r="I70" s="0" t="n">
+        <v>0.11907394</v>
+      </c>
+      <c r="J70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <v>0.38279057</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <v>0.07633187</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B71" s="0" t="n">
+        <v>0.29037802</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.036508411</v>
+      </c>
+      <c r="D71" s="0" t="n">
+        <v>0.0476318</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>0.042455754</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1.1838443</v>
+      </c>
+      <c r="G71" s="0" t="n">
+        <v>0.075537736</v>
+      </c>
+      <c r="H71" s="0" t="n">
+        <v>0.22061212</v>
+      </c>
+      <c r="I71" s="0" t="n">
+        <v>0.030534748</v>
+      </c>
+      <c r="J71" s="0" t="n">
+        <v>0.05693912</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <v>0.098621449</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <v>0.35059864</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <v>0.085866775</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B72" s="0" t="n">
+        <v>0.24957327</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.10792089</v>
+      </c>
+      <c r="D72" s="0" t="n">
+        <v>0.034509403</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>0.05977204</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>1.1252238</v>
+      </c>
+      <c r="G72" s="0" t="n">
+        <v>0.12725829</v>
+      </c>
+      <c r="H72" s="0" t="n">
+        <v>0.21871669</v>
+      </c>
+      <c r="I72" s="0" t="n">
+        <v>0.052680662</v>
+      </c>
+      <c r="J72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <v>0.38155526</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <v>0.11549538</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B73" s="0" t="n">
+        <v>0.45013788</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>0.04381415</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0.096774056</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0.031001477</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0.98350571</v>
+      </c>
+      <c r="G73" s="0" t="n">
+        <v>0.12241477</v>
+      </c>
+      <c r="H73" s="0" t="n">
+        <v>0.30483882</v>
+      </c>
+      <c r="I73" s="0" t="n">
+        <v>0.016628839</v>
+      </c>
+      <c r="J73" s="0" t="n">
+        <v>0.052850404</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <v>0.091539584</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <v>0.41295049</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <v>0.10747337</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B74" s="0" t="n">
+        <v>0.54717158</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>0.019788142</v>
+      </c>
+      <c r="D74" s="0" t="n">
+        <v>0.23020278</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>0.056807723</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0.591107</v>
+      </c>
+      <c r="G74" s="0" t="n">
+        <v>0.13899528</v>
+      </c>
+      <c r="H74" s="0" t="n">
+        <v>0.42790518</v>
+      </c>
+      <c r="I74" s="0" t="n">
+        <v>0.093116814</v>
+      </c>
+      <c r="J74" s="0" t="n">
+        <v>0.20435008</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <v>0.021854494</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <v>0.22923014</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <v>0.034443319</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/SupportingInformation.xlsx
+++ b/SupportingInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trendlines" sheetId="1" state="visible" r:id="rId2"/>
@@ -346,8 +346,8 @@
   </sheetPr>
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -699,7 +699,7 @@
   </sheetPr>
   <dimension ref="A1:M74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C39" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="O67" activeCellId="0" sqref="O67"/>
     </sheetView>
   </sheetViews>

--- a/SupportingInformation.xlsx
+++ b/SupportingInformation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Trendlines" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
   <si>
     <t>Case</t>
   </si>
@@ -34,7 +34,7 @@
     <t>All</t>
   </si>
   <si>
-    <t>Y = 7229269.334096*X^-1.95517449</t>
+    <t>Y =6015004.7659681*X^-1.9292826071</t>
   </si>
   <si>
     <t>Energy Efficiency</t>
@@ -43,22 +43,22 @@
     <t>AA uptake w/ &amp; w/o synthesis</t>
   </si>
   <si>
-    <t>Y = -0.0164666944*X+89.2348988418</t>
+    <t>Y = -0.0165286577*X + 90.956655699</t>
   </si>
   <si>
     <t>AA synthesis w/o uptake</t>
   </si>
   <si>
-    <t>Y= -0.00310715*X+32.75368345</t>
+    <t>Y= -0.0031763617*X+33.475197551</t>
   </si>
   <si>
     <t>Carbon Yield</t>
   </si>
   <si>
-    <t>Y = -0.0080654408*X+63.540138</t>
-  </si>
-  <si>
-    <t>Y = -0.0069488777*X+57.8526085978</t>
+    <t>Y = -0.0080291315*X + 63.8261160855</t>
+  </si>
+  <si>
+    <t>Y = -0.0069792882*X+58.8562299</t>
   </si>
   <si>
     <t>* CAT productivity was excluded from the trendline</t>
@@ -67,6 +67,60 @@
     <t>X = Carbon number of protein</t>
   </si>
   <si>
+    <t>Carbon Number</t>
+  </si>
+  <si>
+    <t>Yield</t>
+  </si>
+  <si>
+    <t>Control</t>
+  </si>
+  <si>
+    <t>w/o Syn</t>
+  </si>
+  <si>
+    <t>w/o AA</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>BMP10</t>
+  </si>
+  <si>
+    <t>CASP9</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>deGFP</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>FGF21</t>
+  </si>
+  <si>
+    <t>scFvR4</t>
+  </si>
+  <si>
+    <t>CAT (sigma70)</t>
+  </si>
+  <si>
+    <t>Productivity</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
     <t>Transcription Stoichiometric Coefficient</t>
   </si>
   <si>
@@ -82,28 +136,7 @@
     <t>UTP</t>
   </si>
   <si>
-    <t>BMP10</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
     <t>dCas9</t>
-  </si>
-  <si>
-    <t>deGFP</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>FGF21</t>
-  </si>
-  <si>
-    <t>scFvR4</t>
   </si>
   <si>
     <t>Protein</t>
@@ -242,7 +275,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -266,6 +299,13 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -314,8 +354,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -323,8 +367,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -344,10 +392,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -358,13 +406,13 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -375,10 +423,10 @@
       <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <v>0.99</v>
       </c>
     </row>
@@ -389,22 +437,22 @@
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <v>0.97</v>
+      <c r="F3" s="2" t="n">
+        <v>0.91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <v>0.79</v>
+      <c r="F4" s="2" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,22 +462,22 @@
       <c r="B5" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>0.83</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -440,6 +488,895 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>45.2</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>47.2</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>46.7</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>58.2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>56.6</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>40.7</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>44.1</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>51.9</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>50.9</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>48.2</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>8.3</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>8.2</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>8.8</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>8.7</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>2123</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>55.8</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>55.9</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>53.3</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H35" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J35" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>77.3</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="J36" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>1140</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>74.4</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="H37" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J37" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>3066</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>43.7</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>23.6</v>
+      </c>
+      <c r="H38" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J38" s="0" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>48.5</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="H39" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H40" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J40" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>65.8</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>76.6</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>70.1</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -470,214 +1407,214 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>19</v>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="n">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="n">
         <v>445</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="D3" s="1" t="n">
+      <c r="D3" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="E3" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="2" t="n">
         <v>424</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="2" t="n">
         <v>848</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="1" t="n">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="n">
         <v>176</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="D4" s="1" t="n">
+      <c r="D4" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="E4" s="1" t="n">
+      <c r="E4" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="2" t="n">
         <v>438</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="n">
+      <c r="A5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="n">
         <v>259</v>
       </c>
-      <c r="C5" s="1" t="n">
+      <c r="C5" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="2" t="n">
         <v>365</v>
       </c>
-      <c r="E5" s="1" t="n">
+      <c r="E5" s="2" t="n">
         <v>288</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="2" t="n">
         <v>416</v>
       </c>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="2" t="n">
         <v>832</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="1" t="n">
+      <c r="A6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="E6" s="1" t="n">
+      <c r="E6" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="2" t="n">
         <v>450</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="1" t="n">
+      <c r="A7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="2" t="n">
         <v>480</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="2" t="n">
         <v>549</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="2" t="n">
         <v>633</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="2" t="n">
         <v>394</v>
       </c>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="2" t="n">
         <v>622</v>
       </c>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="2" t="n">
         <v>1244</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="n">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="n">
         <v>403</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="2" t="n">
         <v>450</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="2" t="n">
         <v>460</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="F8" s="2" t="n">
         <v>488</v>
       </c>
-      <c r="G8" s="1" t="n">
+      <c r="G8" s="2" t="n">
         <v>976</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="n">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="2" t="n">
         <v>193</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="2" t="n">
         <v>222</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="2" t="n">
         <v>418</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="1" t="n">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>180</v>
       </c>
-      <c r="C10" s="1" t="n">
+      <c r="C10" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="D10" s="1" t="n">
+      <c r="D10" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="E10" s="1" t="n">
+      <c r="E10" s="2" t="n">
         <v>134</v>
       </c>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="2" t="n">
         <v>542</v>
       </c>
     </row>
@@ -722,19 +1659,19 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>29</v>
+      <c r="A1" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -826,49 +1763,49 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
-        <v>33</v>
+      <c r="A12" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,49 +2055,49 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
-        <v>40</v>
+      <c r="A21" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="H22" s="0" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1534,43 +2471,43 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1944,43 +2881,43 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2353,49 +3290,49 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2" t="s">
-        <v>59</v>
+      <c r="A55" s="1" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2728,43 +3665,43 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SupportingInformation.xlsx
+++ b/SupportingInformation.xlsx
@@ -13,259 +13,270 @@
     <sheet name="Data" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="83">
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Trendline</t>
-  </si>
-  <si>
-    <t>R^2</t>
-  </si>
-  <si>
-    <t>Productivity*</t>
-  </si>
-  <si>
-    <t>All</t>
-  </si>
-  <si>
-    <t>Y =6015004.7659681*X^-1.9292826071</t>
-  </si>
-  <si>
-    <t>Energy Efficiency</t>
-  </si>
-  <si>
-    <t>AA uptake w/ &amp; w/o synthesis</t>
-  </si>
-  <si>
-    <t>Y = -0.0165286577*X + 90.956655699</t>
-  </si>
-  <si>
-    <t>AA synthesis w/o uptake</t>
-  </si>
-  <si>
-    <t>Y= -0.0031763617*X+33.475197551</t>
-  </si>
-  <si>
-    <t>Carbon Yield</t>
-  </si>
-  <si>
-    <t>Y = -0.0080291315*X + 63.8261160855</t>
-  </si>
-  <si>
-    <t>Y = -0.0069792882*X+58.8562299</t>
-  </si>
-  <si>
-    <t>* CAT productivity was excluded from the trendline</t>
-  </si>
-  <si>
-    <t>X = Carbon number of protein</t>
-  </si>
-  <si>
-    <t>Carbon Number</t>
-  </si>
-  <si>
-    <t>Yield</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>w/o Syn</t>
-  </si>
-  <si>
-    <t>w/o AA</t>
-  </si>
-  <si>
-    <t>experiment</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>BMP10</t>
-  </si>
-  <si>
-    <t>CASP9</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>deGFP</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>FGF21</t>
-  </si>
-  <si>
-    <t>scFvR4</t>
-  </si>
-  <si>
-    <t>CAT (sigma70)</t>
-  </si>
-  <si>
-    <t>Productivity</t>
-  </si>
-  <si>
-    <t>Efficiency</t>
-  </si>
-  <si>
-    <t>Transcription Stoichiometric Coefficient</t>
-  </si>
-  <si>
-    <t>ATP</t>
-  </si>
-  <si>
-    <t>CTP</t>
-  </si>
-  <si>
-    <t>GTP</t>
-  </si>
-  <si>
-    <t>UTP</t>
-  </si>
-  <si>
-    <t>dCas9</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>time (h)</t>
-  </si>
-  <si>
-    <t>CAT (mM)</t>
-  </si>
-  <si>
-    <t>Error (mM)</t>
-  </si>
-  <si>
-    <t>Organic Acids</t>
-  </si>
-  <si>
-    <t>Acetate (mM)</t>
-  </si>
-  <si>
-    <t>Glucose (mM)</t>
-  </si>
-  <si>
-    <t>Lactate (mM)</t>
-  </si>
-  <si>
-    <t>Malate (mM)</t>
-  </si>
-  <si>
-    <t>Pyruvate (mM)</t>
-  </si>
-  <si>
-    <t>Succinate (mM)</t>
-  </si>
-  <si>
-    <t>Amino Acids</t>
-  </si>
-  <si>
-    <t>Alanine (mM)</t>
-  </si>
-  <si>
-    <t>Asparagine (mM)</t>
-  </si>
-  <si>
-    <t>Aspartic acid (mM)</t>
-  </si>
-  <si>
-    <t>Cysteine (mM)</t>
-  </si>
-  <si>
-    <t>Glutamine (mM)</t>
-  </si>
-  <si>
-    <t>Glycine (mM)</t>
-  </si>
-  <si>
-    <t>Histidine (mM)</t>
-  </si>
-  <si>
-    <t>Isoleucine (mM)</t>
-  </si>
-  <si>
-    <t>Leucine (mM)</t>
-  </si>
-  <si>
-    <t>Lysine (mM)</t>
-  </si>
-  <si>
-    <t>Methionine (mM)</t>
-  </si>
-  <si>
-    <t>Phenylalanine (mM)</t>
-  </si>
-  <si>
-    <t>Proline (mM)</t>
-  </si>
-  <si>
-    <t>Serine (mM)</t>
-  </si>
-  <si>
-    <t>Threonine (mM)</t>
-  </si>
-  <si>
-    <t>Tryptophan (mM)</t>
-  </si>
-  <si>
-    <t>Tyrosine (mM)</t>
-  </si>
-  <si>
-    <t>Valine (mM)</t>
-  </si>
-  <si>
-    <t>Nucleotides</t>
-  </si>
-  <si>
-    <t>ADP (mM)</t>
-  </si>
-  <si>
-    <t>AMP (mM)</t>
-  </si>
-  <si>
-    <t>ATP (mM)</t>
-  </si>
-  <si>
-    <t>CDP (mM)</t>
-  </si>
-  <si>
-    <t>CMP (mM)</t>
-  </si>
-  <si>
-    <t>CTP (mM)</t>
-  </si>
-  <si>
-    <t>GDP (mM)</t>
-  </si>
-  <si>
-    <t>GMP (mM)</t>
-  </si>
-  <si>
-    <t>GTP (mM)</t>
-  </si>
-  <si>
-    <t>UDP (mM)</t>
-  </si>
-  <si>
-    <t>UMP (mM)</t>
-  </si>
-  <si>
-    <t>UTP (mM)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="85">
+  <si>
+    <t xml:space="preserve">Case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trendline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R^2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y =6015004.7659681*X^-1.9292826071</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max Productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y =13888803.1541649*X^-1.9890762115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA uptake w/ &amp; w/o synthesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = -0.0165286577*X + 90.956655699</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AA synthesis w/o uptake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y= -0.0031763617*X+33.475197551</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = -0.0080291315*X + 63.8261160855</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y = -0.0069792882*X+58.8562299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* CAT productivity was excluded from the trendline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X = Carbon number of protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carbon Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o Syn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BMP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deGFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGF21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scFvR4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT (sigma70)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcription Stoichiometric Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dCas9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time (h)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAT (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organic Acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetate (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glucose (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lactate (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malate (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succinate (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amino Acids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asparagine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartic acid (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cysteine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glycine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Histidine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoleucine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lysine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methionine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylalanine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threonine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tryptophan (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tyrosine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valine (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nucleotides</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GDP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GMP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GTP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UDP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMP (mM)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UTP (mM)</t>
   </si>
 </sst>
 </file>
@@ -273,7 +284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -392,17 +403,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,16 +446,19 @@
         <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="n">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
@@ -452,423 +466,411 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>7</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="0" t="n">
-        <v>0.95</v>
+      <c r="F5" s="2" t="n">
+        <v>0.78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>13</v>
+      </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="B7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>0.9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="C12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="D12" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="E12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K11" s="0" t="s">
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="J12" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="K12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>45.2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="0" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="J12" s="0" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K12" s="0" t="n">
-        <v>3.3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>2004</v>
+        <v>2123</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>47.2</v>
+        <v>45.2</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>46.7</v>
+        <v>44.8</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>44</v>
+        <v>43.1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>1175</v>
+        <v>2004</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>58.2</v>
+        <v>47.2</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>57.1</v>
+        <v>46.7</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>51.6</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>6.2</v>
+        <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>56.6</v>
+        <v>58.2</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>55.1</v>
+        <v>57.1</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>51.8</v>
+        <v>51.6</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>6.2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <v>1.9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>3066</v>
+        <v>1140</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>40.7</v>
+        <v>56.6</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>40</v>
+        <v>55.1</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>38.4</v>
+        <v>51.8</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>2376</v>
+        <v>3066</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>45.8</v>
+        <v>40.7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>44.1</v>
+        <v>40</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>42.4</v>
+        <v>38.4</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="J17" s="0" t="n">
         <v>3.7</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>992</v>
+        <v>2376</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>55.7</v>
+        <v>45.8</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>54.7</v>
+        <v>44.1</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>52.9</v>
+        <v>42.4</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>2.4</v>
+        <v>3.7</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>55.7</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>54.7</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>52.9</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
         <v>1230</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="0" t="n">
+      <c r="B20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>51.9</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>50.9</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>48.2</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I19" s="0" t="n">
+      <c r="H20" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I20" s="0" t="n">
         <v>2.9</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>2.8</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>2.3</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>58</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <v>56.9</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>51.8</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="J20" s="0" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>1.9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4"/>
+      <c r="B21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>56.9</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>51.8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="0" t="s">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="B23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="D23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="0" t="s">
+      <c r="H23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J23" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K23" s="0" t="n">
-        <v>0.7</v>
+      <c r="J23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>2004</v>
+        <v>2123</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>2.4</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2.5</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>0.7</v>
@@ -882,500 +884,529 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1175</v>
+        <v>2004</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>11.8</v>
+        <v>2.5</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>11.6</v>
+        <v>2.5</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>8.3</v>
+        <v>12</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>8.4</v>
+        <v>11.8</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>8.2</v>
+        <v>11.4</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>11.6</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>3066</v>
+        <v>1140</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>1.1</v>
+        <v>8.3</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>1.1</v>
+        <v>8.2</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>2376</v>
+        <v>3066</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>992</v>
+        <v>2376</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>9.8</v>
+        <v>1.9</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>9.7</v>
+        <v>1.8</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>9.8</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>9.7</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
         <v>1230</v>
       </c>
-      <c r="B30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="0" t="n">
+      <c r="B31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>6.2</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>5.9</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I30" s="0" t="n">
+      <c r="H31" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31" s="0" t="n">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>8.8</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I31" s="0" t="n">
+      <c r="H32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>2.3</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="0" t="s">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="D34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="K33" s="0" t="s">
+      <c r="H34" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="0" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D34" s="0" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J34" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K34" s="0" t="n">
-        <v>2.2</v>
+      <c r="J34" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>2004</v>
+        <v>2123</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>55.9</v>
+        <v>55.8</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>53.3</v>
+        <v>53.6</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>26.2</v>
+        <v>28.2</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>7.2</v>
+        <v>8.6</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>1175</v>
+        <v>2004</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>77.3</v>
+        <v>55.9</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>71.3</v>
+        <v>53.3</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>3.6</v>
+        <v>26.2</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="0" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>74.4</v>
+        <v>77.3</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>69.7</v>
+        <v>71.3</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>3.6</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>6.4</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>1.2</v>
+        <v>1</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <v>1.1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>3066</v>
+        <v>1140</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>43.7</v>
+        <v>74.4</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>41.5</v>
+        <v>69.7</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>23.6</v>
+        <v>29.3</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>2376</v>
+        <v>3066</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>55.2</v>
+        <v>43.7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>48.5</v>
+        <v>41.5</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>25.8</v>
+        <v>23.6</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>7.1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>7.2</v>
+        <v>6.3</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>992</v>
+        <v>2376</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>82.4</v>
+        <v>55.2</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>73.1</v>
+        <v>48.5</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>31.9</v>
+        <v>25.8</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>7.8</v>
+        <v>7.1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>82.4</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>73.1</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H41" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" s="0" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="J41" s="0" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
         <v>1230</v>
       </c>
-      <c r="B41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="0" t="n">
+      <c r="B42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="0" t="n">
         <v>67.5</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D42" s="0" t="n">
         <v>65.8</v>
       </c>
-      <c r="E41" s="0" t="n">
+      <c r="E42" s="0" t="n">
         <v>30.4</v>
       </c>
-      <c r="H41" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="I41" s="0" t="n">
+      <c r="H42" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I42" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="J41" s="0" t="n">
+      <c r="J42" s="0" t="n">
         <v>7.1</v>
       </c>
-      <c r="K41" s="0" t="n">
+      <c r="K42" s="0" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="0" t="n">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="0" t="n">
         <v>76.6</v>
       </c>
-      <c r="D42" s="0" t="n">
+      <c r="D43" s="0" t="n">
         <v>70.1</v>
       </c>
-      <c r="E42" s="0" t="n">
+      <c r="E43" s="0" t="n">
         <v>27.7</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" s="0" t="n">
+      <c r="H43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I43" s="0" t="n">
         <v>7.7</v>
       </c>
-      <c r="J42" s="0" t="n">
+      <c r="J43" s="0" t="n">
         <v>6.4</v>
       </c>
-      <c r="K42" s="0" t="n">
+      <c r="K43" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1398,45 +1429,45 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
+      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="A7 C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>445</v>
@@ -1459,7 +1490,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>176</v>
@@ -1482,7 +1513,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>259</v>
@@ -1505,7 +1536,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>163</v>
@@ -1528,7 +1559,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>480</v>
@@ -1551,7 +1582,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>403</v>
@@ -1574,7 +1605,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>110</v>
@@ -1597,7 +1628,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>180</v>
@@ -1637,41 +1668,41 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O67" activeCellId="0" sqref="O67"/>
+      <selection pane="topLeft" activeCell="O67" activeCellId="1" sqref="A7 O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.45918367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1530612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.2959183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.96938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.4132653061224"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2244897959184"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.6530612244898"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.7602040816327"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.8469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.85204081632653"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,48 +1795,48 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="D13" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2056,48 +2087,48 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2471,43 +2502,43 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,43 +2912,43 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3291,48 +3322,48 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,43 +3696,43 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/SupportingInformation.xlsx
+++ b/SupportingInformation.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="88">
   <si>
     <t xml:space="preserve">Case</t>
   </si>
@@ -54,13 +54,13 @@
     <t xml:space="preserve">AA uptake w/ &amp; w/o synthesis</t>
   </si>
   <si>
-    <t xml:space="preserve">Y = -0.0165286577*X + 90.956655699</t>
+    <t xml:space="preserve">Y = -0.0004013838*X+86.1952399977</t>
   </si>
   <si>
     <t xml:space="preserve">AA synthesis w/o uptake</t>
   </si>
   <si>
-    <t xml:space="preserve">Y= -0.0031763617*X+33.475197551</t>
+    <t xml:space="preserve">Y= -0.0030272199*X+67.3997545927</t>
   </si>
   <si>
     <t xml:space="preserve">Carbon Yield</t>
@@ -84,21 +84,24 @@
     <t xml:space="preserve">Yield</t>
   </si>
   <si>
+    <t xml:space="preserve">AA w/ Syn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o Syn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w/o AA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">experiment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error</t>
+  </si>
+  <si>
     <t xml:space="preserve">Control</t>
   </si>
   <si>
-    <t xml:space="preserve">w/o Syn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">w/o AA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">experiment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error</t>
-  </si>
-  <si>
     <t xml:space="preserve">BMP10</t>
   </si>
   <si>
@@ -126,13 +129,19 @@
     <t xml:space="preserve">CAT (sigma70)</t>
   </si>
   <si>
+    <t xml:space="preserve">MBP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Productivity</t>
   </si>
   <si>
     <t xml:space="preserve">Efficiency</t>
   </si>
   <si>
-    <t xml:space="preserve">Transcription Stoichiometric Coefficient</t>
+    <t xml:space="preserve">Transcription stoichiometric coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translation stoichiometric coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">ATP</t>
@@ -383,7 +392,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -403,17 +412,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -466,7 +474,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.91</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -480,7 +488,7 @@
         <v>12</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.78</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -544,7 +552,7 @@
         <v>24</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J12" s="0" t="s">
         <v>21</v>
@@ -561,7 +569,7 @@
         <v>2123</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>45.2</v>
@@ -573,7 +581,7 @@
         <v>43.1</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>3.9</v>
@@ -590,7 +598,7 @@
         <v>2004</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>47.2</v>
@@ -602,7 +610,7 @@
         <v>44</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3.1</v>
@@ -619,7 +627,7 @@
         <v>1175</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>58.2</v>
@@ -634,7 +642,7 @@
         <v>6.2</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>2.3</v>
@@ -654,7 +662,7 @@
         <v>1140</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>56.6</v>
@@ -666,7 +674,7 @@
         <v>51.8</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>2.4</v>
@@ -683,7 +691,7 @@
         <v>3066</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>40.7</v>
@@ -695,7 +703,7 @@
         <v>38.4</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>3.9</v>
@@ -712,7 +720,7 @@
         <v>2376</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>45.8</v>
@@ -724,7 +732,7 @@
         <v>42.4</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>3</v>
@@ -741,7 +749,7 @@
         <v>992</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>55.7</v>
@@ -753,7 +761,7 @@
         <v>52.9</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>2.2</v>
@@ -770,7 +778,7 @@
         <v>1230</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>51.9</v>
@@ -782,7 +790,7 @@
         <v>48.2</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>2.9</v>
@@ -795,9 +803,11 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
+      <c r="A21" s="4" t="n">
+        <v>1175</v>
+      </c>
       <c r="B21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>58</v>
@@ -809,7 +819,7 @@
         <v>51.8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>2.5</v>
@@ -822,78 +832,75 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A22" s="4" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>50.7</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>50.2</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="0" t="s">
+      <c r="B24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="0" t="s">
+      <c r="I24" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="K23" s="0" t="s">
+      <c r="K24" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J24" s="0" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K24" s="0" t="n">
-        <v>0.7</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>2004</v>
+        <v>2123</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>26</v>
       </c>
       <c r="C25" s="0" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D25" s="0" t="n">
         <v>2.4</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <v>2.5</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>2.5</v>
@@ -913,501 +920,594 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1175</v>
+        <v>2004</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>12</v>
+        <v>2.4</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>11.8</v>
+        <v>2.5</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>11.6</v>
+        <v>2.5</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L26" s="0" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>1140</v>
+        <v>1175</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>8.3</v>
+        <v>11.5</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>8.4</v>
+        <v>11.4</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>8.2</v>
+        <v>11.4</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>11.6</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>3.5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>3066</v>
+        <v>1140</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>29</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>1.1</v>
+        <v>8.3</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>1.1</v>
+        <v>8.4</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>1.1</v>
+        <v>8.2</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>29</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>0.3</v>
+        <v>2.5</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>0.3</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>2376</v>
+        <v>3066</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>992</v>
+        <v>2376</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>1.9</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>9.8</v>
+        <v>1.9</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>9.7</v>
+        <v>1.8</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>1230</v>
+        <v>992</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>6.2</v>
+        <v>10</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>5.9</v>
+        <v>9.8</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>5.9</v>
+        <v>9.7</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="I31" s="0" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>1230</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="I32" s="0" t="n">
         <v>1.7</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>1.5</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="0" t="n">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="0" t="n">
         <v>8.8</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D33" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="E33" s="0" t="n">
         <v>8.9</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="0" t="n">
+      <c r="H33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I33" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J33" s="0" t="n">
         <v>2.3</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K33" s="0" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="0" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H34" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J34" s="0" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="0" t="s">
+      <c r="B36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="D36" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="0" t="s">
+      <c r="E36" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="I36" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="J36" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="K34" s="0" t="s">
+      <c r="K36" s="0" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="n">
-        <v>2123</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>55.8</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="I35" s="0" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="J35" s="0" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="K35" s="0" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="n">
-        <v>2004</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>55.9</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <v>53.3</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="0" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J36" s="0" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="K36" s="0" t="n">
-        <v>1.8</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>1175</v>
+        <v>2123</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>77.3</v>
+        <v>83.9</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>71.3</v>
+        <v>83.3</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>3.6</v>
+        <v>74.4</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>7.3</v>
+        <v>0.1</v>
       </c>
       <c r="J37" s="0" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="L37" s="0" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>1140</v>
+        <v>2004</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>74.4</v>
+        <v>84.2</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>69.7</v>
+        <v>83.3</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>29.3</v>
+        <v>74.6</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>7.2</v>
+        <v>0.1</v>
       </c>
       <c r="J38" s="0" t="n">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>3066</v>
+        <v>1175</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>43.7</v>
+        <v>84.2</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>41.5</v>
+        <v>83.3</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>23.6</v>
+        <v>68</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>13.3</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>7.1</v>
+        <v>0.1</v>
       </c>
       <c r="J39" s="0" t="n">
-        <v>6.3</v>
+        <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>4.7</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>2376</v>
+        <v>1140</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>55.2</v>
+        <v>84</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>48.5</v>
+        <v>83.3</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>25.8</v>
+        <v>69.5</v>
       </c>
       <c r="H40" s="0" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>7.1</v>
+        <v>0.1</v>
       </c>
       <c r="J40" s="0" t="n">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>992</v>
+        <v>3066</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>82.4</v>
+        <v>84</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>73.1</v>
+        <v>83.3</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>31.9</v>
+        <v>75.8</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>7.8</v>
+        <v>0.1</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>6.7</v>
+        <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
+        <v>2376</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>84.6</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>75</v>
+      </c>
+      <c r="H42" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>992</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>84.9</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>72.6</v>
+      </c>
+      <c r="H43" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="I43" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
         <v>1230</v>
       </c>
-      <c r="B42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>67.5</v>
-      </c>
-      <c r="D42" s="0" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>30.4</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="J42" s="0" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K42" s="0" t="n">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="3" t="s">
+      <c r="B44" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="0" t="n">
-        <v>76.6</v>
-      </c>
-      <c r="D43" s="0" t="n">
-        <v>70.1</v>
-      </c>
-      <c r="E43" s="0" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="C44" s="0" t="n">
+        <v>83.6</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>72</v>
+      </c>
+      <c r="H44" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="I43" s="0" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="J43" s="0" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="K43" s="0" t="n">
+      <c r="I44" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="J44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>1175</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>84.2</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>68</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="J45" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>1419</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>84.7</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>83.3</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>75.3</v>
+      </c>
+      <c r="H46" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="I46" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
@@ -1426,48 +1526,45 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C29" activeCellId="1" sqref="A7 C29"/>
+      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>445</v>
@@ -1490,7 +1587,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>176</v>
@@ -1513,7 +1610,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>259</v>
@@ -1536,7 +1633,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>163</v>
@@ -1559,7 +1656,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>480</v>
@@ -1582,7 +1679,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>403</v>
@@ -1605,7 +1702,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>110</v>
@@ -1628,7 +1725,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>180</v>
@@ -1647,6 +1744,30 @@
       </c>
       <c r="G10" s="2" t="n">
         <v>542</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>238</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>264</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>228</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>191</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <f aca="false">35+5+14+14+1+9+16+20+1+10+33+19+6+8+25+29+27+1+7+26</f>
+        <v>306</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>612</v>
       </c>
     </row>
   </sheetData>
@@ -1668,41 +1789,40 @@
   <dimension ref="A1:M74"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O67" activeCellId="1" sqref="A7 O67"/>
+      <selection pane="topLeft" activeCell="O67" activeCellId="0" sqref="O67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3622448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.8469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.4438775510204"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.58673469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5816326530612"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.71938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.9285714285714"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="14.1734693877551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="13.2295918367347"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1795,48 +1915,48 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="0" t="s">
-        <v>45</v>
-      </c>
       <c r="F13" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2087,48 +2207,48 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,43 +2622,43 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2912,43 +3032,43 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H44" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3322,48 +3442,48 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3696,43 +3816,43 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
